--- a/Sufficient data WITH_PO/B083NK82QJ_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B083NK82QJ_Optuna_PO_Forecast.xlsx
@@ -454,7 +454,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45074.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -614,7 +614,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
@@ -798,7 +798,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45697.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>45704.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>45711.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>45718.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>45725.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>45732.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>45739.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>45746.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>45753.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>45760.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
